--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="temp" localSheetId="2">Sheet3!$C$7:$E$15</definedName>
     <definedName name="temp_1" localSheetId="2">Sheet3!$C$19:$E$27</definedName>
+    <definedName name="temp_1" localSheetId="7">Sheet8!$E$15:$I$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,11 +64,24 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="temp2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\sg2359\Desktop\temp.txt" delimited="0">
+      <textFields count="7">
+        <textField/>
+        <textField position="23"/>
+        <textField position="32"/>
+        <textField position="42"/>
+        <textField position="54"/>
+        <textField position="65"/>
+        <textField position="75"/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>Year</t>
   </si>
@@ -161,6 +180,141 @@
   </si>
   <si>
     <t>Expense Ratios</t>
+  </si>
+  <si>
+    <t>1.8776***</t>
+  </si>
+  <si>
+    <t>2.0844***</t>
+  </si>
+  <si>
+    <t>-1.8571***</t>
+  </si>
+  <si>
+    <t>1.8077***</t>
+  </si>
+  <si>
+    <t>0.2279</t>
+  </si>
+  <si>
+    <t>0.0105</t>
+  </si>
+  <si>
+    <t>0.4867</t>
+  </si>
+  <si>
+    <t>-1.7821***</t>
+  </si>
+  <si>
+    <t>0.2286</t>
+  </si>
+  <si>
+    <t>0.7262</t>
+  </si>
+  <si>
+    <t>0.3423</t>
+  </si>
+  <si>
+    <t>0.4076</t>
+  </si>
+  <si>
+    <t>2.0093***</t>
+  </si>
+  <si>
+    <t>0.9262***</t>
+  </si>
+  <si>
+    <t>0.2315</t>
+  </si>
+  <si>
+    <t>0.0229***</t>
+  </si>
+  <si>
+    <t>0.0059</t>
+  </si>
+  <si>
+    <t>-1.1343*</t>
+  </si>
+  <si>
+    <t>0.5939</t>
+  </si>
+  <si>
+    <t>-1.2832**</t>
+  </si>
+  <si>
+    <t>0.6410</t>
+  </si>
+  <si>
+    <t>0.2162</t>
+  </si>
+  <si>
+    <t>0.7093</t>
+  </si>
+  <si>
+    <t>-0.3679</t>
+  </si>
+  <si>
+    <t>0.4039</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Panel Data OLS :  Starts</t>
+  </si>
+  <si>
+    <t>closed_November2005</t>
+  </si>
+  <si>
+    <t>closed_December2005</t>
+  </si>
+  <si>
+    <t>closed_January2006</t>
+  </si>
+  <si>
+    <t>closed_February2006</t>
+  </si>
+  <si>
+    <t>closed_March2006</t>
+  </si>
+  <si>
+    <t>closed_February2008</t>
+  </si>
+  <si>
+    <t>closed_March2008</t>
+  </si>
+  <si>
+    <t>closed_April2008</t>
+  </si>
+  <si>
+    <t>closed_May2008</t>
+  </si>
+  <si>
+    <t>closed_June2008</t>
+  </si>
+  <si>
+    <t>OLS Starts</t>
+  </si>
+  <si>
+    <t>Tstat</t>
+  </si>
+  <si>
+    <t>Pvalues</t>
+  </si>
+  <si>
+    <t>Std Err</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
   </si>
 </sst>
 </file>
@@ -207,22 +361,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,12 +395,1016 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pre and Post Treatment Effects</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40291273126667987"/>
+          <c:y val="2.4539877300613498E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet9!$F$14:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>closed_November2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>closed_December2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>closed_January2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>closed_February2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>closed_March2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>closed_regime2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>closed_February2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>closed_March2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>closed_April2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>closed_May2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>closed_June2008</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet9!$G$14:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.93630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.98440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.97409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9605999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6800000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABF3-4D0E-8C2E-64BE4BAC69CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497369352"/>
+        <c:axId val="497370992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497369352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497370992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497370992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497369352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,18 +1686,18 @@
   </cols>
   <sheetData>
     <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,7 +2108,7 @@
   <dimension ref="D2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="D2:K15"/>
+      <selection activeCell="E3" sqref="E3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,18 +2120,18 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -998,288 +2157,288 @@
       </c>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>1999</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>17.128232000000001</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.598889</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>73.064487999999997</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>3.8185999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>2000</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>80.261713999999998</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>5.7993000000000003E-2</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>17.803718</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>-1.7259E-2</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>1.352943</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.73058900000000004</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>2.7059E-2</v>
       </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.62235399999999996</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>-1.9125E-2</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2002</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>8.5763979999999993</v>
       </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>-3.9940000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>2003</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>13.133808999999999</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>2.7530480000000002</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>4.6586000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>2004</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>104.995364</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>16.189978</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>1.1615E-2</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>2005</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>567.25867100000005</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>17.518117</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>8.9952000000000004E-2</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>3.4304000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>2006</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>156.94180299999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>634.46620900000005</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>2.9725459999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>12.579469</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>14.496546</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>2.7158999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>2007</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>301.56261799999999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>296.90307100000001</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>8.8081790000000009</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>5.456575</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>13.058994</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>1.9491000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>2008</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>222.90753799999999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>188.77488199999999</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>18.346057999999999</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>3.9076E-2</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>-5.2449000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>2009</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100.020427</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>2.331086</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>7.2095000000000006E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>0.60079499999999997</v>
       </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6.9561999999999999E-2</v>
       </c>
     </row>
@@ -1287,31 +2446,31 @@
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <f>AVERAGE(E4:E14)</f>
         <v>62.069536545454532</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <f t="shared" ref="F15:K15" si="0">AVERAGE(F4:F14)</f>
         <v>182.93176054545455</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>2.9507153636363639</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>3.3044793636363634</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>2.5678442727272728</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>10.03941690909091</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>1.4006909090909091E-2</v>
       </c>
@@ -1331,7 +2490,7 @@
   <dimension ref="C7:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R39" sqref="P20:R39"/>
+      <selection activeCell="P20" sqref="P20:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,10 +2633,10 @@
       <c r="G20">
         <v>7.0639000000000003</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="4"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -1768,9 +2927,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D13:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -1785,32 +2956,32 @@
   </cols>
   <sheetData>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
@@ -1912,4 +3083,1261 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>1999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>8.3333000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.4166669999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>2005</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3.5833330000000001</v>
+      </c>
+      <c r="H12" s="4">
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>2006</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.4166669999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.16666700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>2008</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.4166669999999999</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.16666700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>2009</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.7777780000000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.222222</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.222222</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f>AVERAGE(F6:F16)</f>
+        <v>0.35606054545454546</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" ref="G17:L17" si="0">AVERAGE(G6:G16)</f>
+        <v>1.7601010000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8080727272727277E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.8484727272727265E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18989899999999996</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:R27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="C7:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D10" s="7">
+        <v>0.1154</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-5.9400000000000001E-2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D18" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D22" s="7">
+        <v>0.1943</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="7">
+        <v>0.71340000000000003</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="7">
+        <v>-0.3679</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="7">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>240</v>
+      </c>
+      <c r="E27">
+        <v>240</v>
+      </c>
+      <c r="F27">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E13:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.7463000000000002</v>
+      </c>
+      <c r="I15">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H16">
+        <v>3.7507999999999999</v>
+      </c>
+      <c r="I16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>-0.35639999999999999</v>
+      </c>
+      <c r="G17">
+        <v>1.7185999999999999</v>
+      </c>
+      <c r="H17">
+        <v>-0.2074</v>
+      </c>
+      <c r="I17">
+        <v>0.83589999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>-0.91200000000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="H18">
+        <v>-1.3441000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.18029999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>-1.3369</v>
+      </c>
+      <c r="G19">
+        <v>0.65</v>
+      </c>
+      <c r="H19">
+        <v>-2.0566</v>
+      </c>
+      <c r="I19">
+        <v>4.0899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>-1.6829000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H20">
+        <v>-2.2959999999999998</v>
+      </c>
+      <c r="I20">
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>-1.7334000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="H21">
+        <v>-8.0268999999999995</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>1.9605999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="H22">
+        <v>2.7332999999999998</v>
+      </c>
+      <c r="I22">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>-0.44729999999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.4098</v>
+      </c>
+      <c r="H23">
+        <v>-1.0914999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2762</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24">
+        <v>-0.93630000000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.2828</v>
+      </c>
+      <c r="H24">
+        <v>-3.3111999999999999</v>
+      </c>
+      <c r="I24">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25">
+        <v>-1.0111000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="H25">
+        <v>-3.5823</v>
+      </c>
+      <c r="I25">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.25729999999999997</v>
+      </c>
+      <c r="H26">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.67569999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27">
+        <v>-0.98440000000000005</v>
+      </c>
+      <c r="G27">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H27">
+        <v>-3.6589</v>
+      </c>
+      <c r="I27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28">
+        <v>-0.97409999999999997</v>
+      </c>
+      <c r="G28">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="H28">
+        <v>-3.4481000000000002</v>
+      </c>
+      <c r="I28">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="G29">
+        <v>0.1065</v>
+      </c>
+      <c r="H29">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="I29">
+        <v>6.54E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.84040000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.1739</v>
+      </c>
+      <c r="H31">
+        <v>1.5399</v>
+      </c>
+      <c r="I31">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="G32">
+        <v>0.1457</v>
+      </c>
+      <c r="H32">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="I32">
+        <v>0.3533</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="H33">
+        <v>-8.0100000000000005E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.93620000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F14:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14">
+        <v>-0.93630000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>-1.0111000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>0.10780000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <v>-0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18">
+        <v>-0.97409999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>1.9605999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20">
+        <v>0.19719999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>0.26779999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23">
+        <v>0.13550000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sg2359\Google Drive (sg2359@cornell.edu)\Projects\CausalInference\table3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sg2359\Google Drive (sg2359@cornell.edu)\Projects\CausalInference\table3\mutualfundindia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,6 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="temp" localSheetId="2">Sheet3!$C$7:$E$15</definedName>
+    <definedName name="temp" localSheetId="8">Sheet9!$D$31:$J$49</definedName>
     <definedName name="temp_1" localSheetId="2">Sheet3!$C$19:$E$27</definedName>
     <definedName name="temp_1" localSheetId="7">Sheet8!$E$15:$I$33</definedName>
   </definedNames>
@@ -77,11 +78,24 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="4" name="temp3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\sg2359\Desktop\temp.txt" delimited="0">
+      <textFields count="7">
+        <textField/>
+        <textField position="23"/>
+        <textField position="32"/>
+        <textField position="42"/>
+        <textField position="54"/>
+        <textField position="65"/>
+        <textField position="75"/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>Year</t>
   </si>
@@ -315,6 +329,9 @@
   </si>
   <si>
     <t>Coefficients</t>
+  </si>
+  <si>
+    <t>stddev</t>
   </si>
 </sst>
 </file>
@@ -371,13 +388,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,6 +540,108 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet9!$I$14:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>-0.379</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-0.45479999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.6149</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-0.45419999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>-0.41739999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.3742999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.40710000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.4345</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.61060000000000003</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.42270000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.63349999999999995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet9!$H$14:$H$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>-1.4936</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1.5672999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-0.39929999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-1.5145999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>-1.5308999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.54700000000000004</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-1.2699999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-0.35389999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-7.4899999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>-0.15160000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>-0.68710000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:strRef>
               <c:f>Sheet9!$F$14:$F$24</c:f>
@@ -1364,16 +1483,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1405,6 +1524,10 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1686,18 +1809,18 @@
   </cols>
   <sheetData>
     <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2120,18 +2243,18 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2633,10 +2756,10 @@
       <c r="G20">
         <v>7.0639000000000003</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -2956,32 +3079,32 @@
   </cols>
   <sheetData>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
@@ -3102,18 +3225,18 @@
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="5:12" x14ac:dyDescent="0.25">
@@ -3398,7 +3521,7 @@
         <v>0.35606054545454546</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17:L17" si="0">AVERAGE(G6:G16)</f>
+        <f t="shared" ref="G17:K17" si="0">AVERAGE(G6:G16)</f>
         <v>1.7601010000000001</v>
       </c>
       <c r="H17" s="4">
@@ -3448,20 +3571,20 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="3:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3469,374 +3592,374 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0.1154</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>-5.9400000000000001E-2</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>0.47</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>0.1943</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.71340000000000003</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="3:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>-0.3679</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="3:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="7">
+    <row r="26" spans="3:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3881,12 +4004,12 @@
   </cols>
   <sheetData>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
@@ -4236,108 +4359,654 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F14:G24"/>
+  <dimension ref="D13:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="10" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>63</v>
       </c>
       <c r="G14">
         <v>-0.93630000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>-1.4936</v>
+      </c>
+      <c r="I14">
+        <v>-0.379</v>
+      </c>
+      <c r="J14">
+        <v>0.2828</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>64</v>
       </c>
       <c r="G15">
         <v>-1.0111000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>-1.5672999999999999</v>
+      </c>
+      <c r="I15">
+        <v>-0.45479999999999998</v>
+      </c>
+      <c r="J15">
+        <v>0.28220000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>65</v>
       </c>
       <c r="G16">
         <v>0.10780000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>-0.39929999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.6149</v>
+      </c>
+      <c r="J16">
+        <v>0.25729999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>66</v>
       </c>
       <c r="G17">
         <v>-0.98440000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>-1.5145999999999999</v>
+      </c>
+      <c r="I17">
+        <v>-0.45419999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>67</v>
       </c>
       <c r="G18">
         <v>-0.97409999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>-1.5308999999999999</v>
+      </c>
+      <c r="I18">
+        <v>-0.41739999999999999</v>
+      </c>
+      <c r="J18">
+        <v>0.28249999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>21</v>
       </c>
       <c r="G19">
         <v>1.9605999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I19">
+        <v>3.3742999999999999</v>
+      </c>
+      <c r="J19">
+        <v>0.71730000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>68</v>
       </c>
       <c r="G20">
         <v>0.19719999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.40710000000000002</v>
+      </c>
+      <c r="J20">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>69</v>
       </c>
       <c r="G21">
         <v>4.0300000000000002E-2</v>
       </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>-0.35389999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.4345</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>70</v>
       </c>
       <c r="G22">
         <v>0.26779999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>-7.4899999999999994E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="J22">
+        <v>0.1739</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>71</v>
       </c>
       <c r="G23">
         <v>0.13550000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>-0.15160000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.1457</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>72</v>
       </c>
       <c r="G24">
         <v>-2.6800000000000001E-2</v>
       </c>
+      <c r="H24">
+        <v>-0.68710000000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="J24">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="F31">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="G31">
+        <v>2.7463000000000002</v>
+      </c>
+      <c r="H31">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I31">
+        <v>0.215</v>
+      </c>
+      <c r="J31">
+        <v>1.3079000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F32">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G32">
+        <v>3.7507999999999999</v>
+      </c>
+      <c r="H32">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I32">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="J32">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>-0.35639999999999999</v>
+      </c>
+      <c r="F33">
+        <v>1.7185999999999999</v>
+      </c>
+      <c r="G33">
+        <v>-0.2074</v>
+      </c>
+      <c r="H33">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="I33">
+        <v>-3.7433000000000001</v>
+      </c>
+      <c r="J33">
+        <v>3.0305</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>-0.91200000000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="G34">
+        <v>-1.3441000000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="I34">
+        <v>-2.2492000000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.42520000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>-1.3369</v>
+      </c>
+      <c r="F35">
+        <v>0.65</v>
+      </c>
+      <c r="G35">
+        <v>-2.0566</v>
+      </c>
+      <c r="H35">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="I35">
+        <v>-2.6179000000000001</v>
+      </c>
+      <c r="J35">
+        <v>-5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>-1.6829000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="G36">
+        <v>-2.2959999999999998</v>
+      </c>
+      <c r="H36">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="I36">
+        <v>-3.1274000000000002</v>
+      </c>
+      <c r="J36">
+        <v>-0.2384</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>-1.7334000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="G37">
+        <v>-8.0268999999999995</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>-2.1589</v>
+      </c>
+      <c r="J37">
+        <v>-1.3078000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <v>1.9605999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="G38">
+        <v>2.7332999999999998</v>
+      </c>
+      <c r="H38">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I38">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J38">
+        <v>3.3742999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>-0.44729999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.4098</v>
+      </c>
+      <c r="G39">
+        <v>-1.0914999999999999</v>
+      </c>
+      <c r="H39">
+        <v>0.2762</v>
+      </c>
+      <c r="I39">
+        <v>-1.2551000000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40">
+        <v>-0.93630000000000002</v>
+      </c>
+      <c r="F40">
+        <v>0.2828</v>
+      </c>
+      <c r="G40">
+        <v>-3.3111999999999999</v>
+      </c>
+      <c r="H40">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I40">
+        <v>-1.4936</v>
+      </c>
+      <c r="J40">
+        <v>-0.379</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41">
+        <v>-1.0111000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="G41">
+        <v>-3.5823</v>
+      </c>
+      <c r="H41">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I41">
+        <v>-1.5672999999999999</v>
+      </c>
+      <c r="J41">
+        <v>-0.45479999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.25729999999999997</v>
+      </c>
+      <c r="G42">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="H42">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="I42">
+        <v>-0.39929999999999999</v>
+      </c>
+      <c r="J42">
+        <v>0.6149</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43">
+        <v>-0.98440000000000005</v>
+      </c>
+      <c r="F43">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G43">
+        <v>-3.6589</v>
+      </c>
+      <c r="H43">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I43">
+        <v>-1.5145999999999999</v>
+      </c>
+      <c r="J43">
+        <v>-0.45419999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44">
+        <v>-0.97409999999999997</v>
+      </c>
+      <c r="F44">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="G44">
+        <v>-3.4481000000000002</v>
+      </c>
+      <c r="H44">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I44">
+        <v>-1.5308999999999999</v>
+      </c>
+      <c r="J44">
+        <v>-0.41739999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="F45">
+        <v>0.1065</v>
+      </c>
+      <c r="G45">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="H45">
+        <v>6.54E-2</v>
+      </c>
+      <c r="I45">
+        <v>-1.2699999999999999E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.40710000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.2</v>
+      </c>
+      <c r="G46">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="H46">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="I46">
+        <v>-0.35389999999999999</v>
+      </c>
+      <c r="J46">
+        <v>0.4345</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.1739</v>
+      </c>
+      <c r="G47">
+        <v>1.5399</v>
+      </c>
+      <c r="H47">
+        <v>0.125</v>
+      </c>
+      <c r="I47">
+        <v>-7.4899999999999994E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.61060000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.1457</v>
+      </c>
+      <c r="G48">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="H48">
+        <v>0.3533</v>
+      </c>
+      <c r="I48">
+        <v>-0.15160000000000001</v>
+      </c>
+      <c r="J48">
+        <v>0.42270000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>-2.6800000000000001E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="G49">
+        <v>-8.0100000000000005E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="I49">
+        <v>-0.68710000000000004</v>
+      </c>
+      <c r="J49">
+        <v>0.63349999999999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>